--- a/excel-review-functions.xlsx
+++ b/excel-review-functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/excel-review-functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA2F4A-2845-3045-B2A1-4B100D1C01F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4805E5B-94BC-2E4C-99F0-23622E5A0F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="18440" windowHeight="16320" xr2:uid="{B49806BF-5006-6545-BBC2-C3D29A78D918}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="16320" xr2:uid="{B49806BF-5006-6545-BBC2-C3D29A78D918}"/>
   </bookViews>
   <sheets>
     <sheet name="functions review" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>weekday function with if</t>
   </si>
@@ -100,12 +100,30 @@
   </si>
   <si>
     <t>WEEKNUM function</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min </t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>choose function (with vlookup and data validation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -152,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -165,6 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCC1F03-D40E-EF4B-8FDB-CE75B9B35406}">
-  <dimension ref="A2:N42"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,7 +568,7 @@
         <v>42371</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B19" si="0">IF(WEEKDAY(A5,1)&gt;=6,"Weekend","Weekday")</f>
+        <f t="shared" ref="B5:B22" si="0">IF(WEEKDAY(A5,1)&gt;=6,"Weekend","Weekday")</f>
         <v>Weekend</v>
       </c>
       <c r="E5" t="s">
@@ -608,71 +627,111 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>42375</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>42376</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>42377</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekend</v>
+      <c r="A11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42378</v>
+        <v>42375</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <v>Weekday</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <f>CHOOSE(VLOOKUP(H12,E12:F15,2,FALSE),SUM(K12:K15),AVERAGE(K12:K15),MIN(K12:K15),MAX(K12:K15))</f>
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42379</v>
+        <v>42376</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>Weekday</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42380</v>
+        <v>42377</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <v>Weekend</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>42381</v>
+        <v>42378</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <v>Weekend</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="8">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>42382</v>
+        <v>42379</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -681,7 +740,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>42383</v>
+        <v>42380</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -690,275 +749,302 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>42384</v>
+        <v>42381</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <v>Weekday</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekday</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekday</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42384</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Weekend</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>42385</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Weekend</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="G23" t="str">
-        <f t="array" ref="G23:I26">TRANSPOSE(A23:D25)</f>
+      <c r="G26" t="str">
+        <f t="array" ref="G26:I29">TRANSPOSE(A26:D28)</f>
         <v>Set1</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H26" t="str">
         <v>Set2</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I26" t="str">
         <v>Set3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>6</v>
       </c>
-      <c r="D25">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="G25">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G26">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="I26">
+      <c r="I29">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10.122999999999999</v>
       </c>
-      <c r="B29">
-        <f>TRUNC(A29)</f>
+      <c r="B32">
+        <f>TRUNC(A32)</f>
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>9.2756500000000006</v>
       </c>
-      <c r="B30">
-        <f t="shared" ref="B30:B34" si="1">TRUNC(A30)</f>
+      <c r="B33">
+        <f t="shared" ref="B33:B37" si="1">TRUNC(A33)</f>
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <f ca="1">RAND()*(50-40)+10</f>
-        <v>16.448945057240149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+        <v>19.724946816728092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>8.3699999999999992</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>7.4</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>6.59</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>5.4089999999999998</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>10</v>
       </c>
-      <c r="B38" t="b">
-        <f>_xlfn.ISFORMULA(A38)</f>
+      <c r="B41" t="b">
+        <f>_xlfn.ISFORMULA(A41)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D41" s="6">
         <v>43466</v>
       </c>
-      <c r="E38" s="6">
-        <f>EOMONTH(D38,0)</f>
+      <c r="E41" s="6">
+        <f>EOMONTH(D41,0)</f>
         <v>43496</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H41" s="6">
         <v>43466</v>
       </c>
-      <c r="I38" t="str">
-        <f>"Week Number  " &amp;WEEKNUM(H38,1)</f>
+      <c r="I41" t="str">
+        <f>"Week Number  " &amp;WEEKNUM(H41,1)</f>
         <v>Week Number  1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
         <f>5+2</f>
         <v>7</v>
       </c>
-      <c r="B39" t="b">
-        <f t="shared" ref="B39:B42" si="2">_xlfn.ISFORMULA(A39)</f>
+      <c r="B42" t="b">
+        <f t="shared" ref="B42:B45" si="2">_xlfn.ISFORMULA(A42)</f>
         <v>1</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D42" s="6">
         <v>43497</v>
       </c>
-      <c r="E39" s="6">
-        <f>EOMONTH(D39,1)</f>
+      <c r="E42" s="6">
+        <f>EOMONTH(D42,1)</f>
         <v>43555</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H42" s="6">
         <v>43497</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" ref="I39:I40" si="3">"Week Number  " &amp;WEEKNUM(H39,1)</f>
+      <c r="I42" t="str">
+        <f t="shared" ref="I42:I43" si="3">"Week Number  " &amp;WEEKNUM(H42,1)</f>
         <v>Week Number  5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <f ca="1">NOW()</f>
-        <v>43747.401905208331</v>
-      </c>
-      <c r="B40" t="b">
+        <v>43747.43704513889</v>
+      </c>
+      <c r="B43" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D43" s="6">
         <v>43525</v>
       </c>
-      <c r="E40" s="6">
-        <f>EOMONTH(D40,-1)</f>
+      <c r="E43" s="6">
+        <f>EOMONTH(D43,-1)</f>
         <v>43524</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H43" s="6">
         <v>43525</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I43" t="str">
         <f t="shared" si="3"/>
         <v>Week Number  9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
         <f>23456</f>
         <v>23456</v>
       </c>
-      <c r="B41" t="b">
+      <c r="B44" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>23456</v>
       </c>
-      <c r="B42" t="b">
+      <c r="B45" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -967,6 +1053,11 @@
   <mergeCells count="1">
     <mergeCell ref="L3:N3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{99C6E878-EBB2-924A-95AD-56764B3BC73E}">
+      <formula1>$E$12:$E$15</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel-review-functions.xlsx
+++ b/excel-review-functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galvanize/excel-review-functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4805E5B-94BC-2E4C-99F0-23622E5A0F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A773D5-BF31-A240-8EDD-28BB87A74071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18440" windowHeight="16320" xr2:uid="{B49806BF-5006-6545-BBC2-C3D29A78D918}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="27200" windowHeight="16320" xr2:uid="{B49806BF-5006-6545-BBC2-C3D29A78D918}"/>
   </bookViews>
   <sheets>
     <sheet name="functions review" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>weekday function with if</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>choose function (with vlookup and data validation)</t>
+  </si>
+  <si>
+    <t>weekday function (to see number)</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,10 +183,10 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,13 +504,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCC1F03-D40E-EF4B-8FDB-CE75B9B35406}">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,17 +525,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -541,6 +548,10 @@
         <f>IF(WEEKDAY(A4,1)&gt;=6,"Weekend","Weekday")</f>
         <v>Weekend</v>
       </c>
+      <c r="C4">
+        <f>WEEKDAY(A4)</f>
+        <v>6</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -568,8 +579,12 @@
         <v>42371</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B22" si="0">IF(WEEKDAY(A5,1)&gt;=6,"Weekend","Weekday")</f>
+        <f>IF(WEEKDAY(A5,1)&gt;=6,"Weekend","Weekday")</f>
         <v>Weekend</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C22" si="0">WEEKDAY(A5)</f>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -586,8 +601,12 @@
         <v>42372</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" ref="B6:B22" si="1">IF(WEEKDAY(A6,1)&gt;=6,"Weekend","Weekday")</f>
+        <v>Weekday</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -604,8 +623,12 @@
         <v>42373</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -622,29 +645,67 @@
         <v>42374</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>42375</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>42376</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42377</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>Weekend</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42375</v>
+        <v>42378</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekend</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -653,26 +714,30 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <f>CHOOSE(VLOOKUP(H12,E12:F15,2,FALSE),SUM(K12:K15),AVERAGE(K12:K15),MIN(K12:K15),MAX(K12:K15))</f>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42376</v>
+        <v>42379</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -683,17 +748,21 @@
       <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -701,20 +770,27 @@
       <c r="F14">
         <v>3</v>
       </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
       <c r="J14" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>42378</v>
+        <v>42381</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -725,71 +801,99 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>42379</v>
+        <v>42382</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>42381</v>
+        <v>42384</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekend</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>42382</v>
+        <v>42385</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekend</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>42383</v>
+        <v>42386</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekday</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>42384</v>
+        <v>42387</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>42385</v>
+        <v>42388</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Weekend</v>
+        <f t="shared" si="1"/>
+        <v>Weekday</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,6 +999,10 @@
         <f>TRUNC(A32)</f>
         <v>10</v>
       </c>
+      <c r="D32">
+        <f>TRUNC(A32,1)</f>
+        <v>10.1</v>
+      </c>
       <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
@@ -904,12 +1012,16 @@
         <v>9.2756500000000006</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B37" si="1">TRUNC(A33)</f>
+        <f t="shared" ref="B33:B37" si="2">TRUNC(A33)</f>
         <v>9</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D37" si="3">TRUNC(A33,1)</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G33">
         <f ca="1">RAND()*(50-40)+10</f>
-        <v>19.724946816728092</v>
+        <v>17.860077981068255</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -917,8 +1029,12 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -926,8 +1042,12 @@
         <v>7.4</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -935,8 +1055,12 @@
         <v>6.59</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -944,8 +1068,12 @@
         <v>5.4089999999999998</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -988,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="b">
-        <f t="shared" ref="B42:B45" si="2">_xlfn.ISFORMULA(A42)</f>
+        <f t="shared" ref="B42:B45" si="4">_xlfn.ISFORMULA(A42)</f>
         <v>1</v>
       </c>
       <c r="D42" s="6">
@@ -1002,17 +1130,17 @@
         <v>43497</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" ref="I42:I43" si="3">"Week Number  " &amp;WEEKNUM(H42,1)</f>
+        <f t="shared" ref="I42:I43" si="5">"Week Number  " &amp;WEEKNUM(H42,1)</f>
         <v>Week Number  5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f ca="1">NOW()</f>
-        <v>43747.43704513889</v>
+        <v>43747.631301504633</v>
       </c>
       <c r="B43" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43" s="6">
@@ -1026,7 +1154,7 @@
         <v>43525</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Week Number  9</v>
       </c>
     </row>
@@ -1036,7 +1164,7 @@
         <v>23456</v>
       </c>
       <c r="B44" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1045,7 +1173,7 @@
         <v>23456</v>
       </c>
       <c r="B45" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +1182,7 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12" xr:uid="{99C6E878-EBB2-924A-95AD-56764B3BC73E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12 H14" xr:uid="{99C6E878-EBB2-924A-95AD-56764B3BC73E}">
       <formula1>$E$12:$E$15</formula1>
     </dataValidation>
   </dataValidations>
